--- a/Excel/Manufacturers.xlsx
+++ b/Excel/Manufacturers.xlsx
@@ -19,24 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Id</t>
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>ComputerId</t>
-  </si>
-  <si>
-    <t>ProcessorId</t>
-  </si>
-  <si>
-    <t>MemoryId</t>
-  </si>
-  <si>
-    <t>VideocardId</t>
   </si>
   <si>
     <t>Lenovo</t>
@@ -373,246 +361,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C1" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Manufacturers.xlsx
+++ b/Excel/Manufacturers.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -353,7 +353,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -364,7 +364,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel/Manufacturers.xlsx
+++ b/Excel/Manufacturers.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -353,7 +353,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -364,7 +364,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel/Manufacturers.xlsx
+++ b/Excel/Manufacturers.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Id</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>HP</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>Nvidia</t>
   </si>
 </sst>
 </file>
@@ -75,12 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,7 +374,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,24 +452,36 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>

--- a/Excel/Manufacturers.xlsx
+++ b/Excel/Manufacturers.xlsx
@@ -2,14 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todor\Documents\Telerik\temp\DB\teamwork\ComputersFactory-master\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,40 +26,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
+    <t>Nvidia</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t>Asus</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Lenovo</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>Asus</t>
-  </si>
-  <si>
-    <t>Acer</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>Intel</t>
-  </si>
-  <si>
-    <t>Nvidia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,11 +91,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -154,9 +159,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -189,9 +194,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -371,153 +376,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
